--- a/QuanLyKho/Templates/baocaonhap.xlsx
+++ b/QuanLyKho/Templates/baocaonhap.xlsx
@@ -104,12 +104,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,9 +231,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -236,11 +239,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +535,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,24 +556,24 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -579,29 +589,29 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -611,32 +621,32 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
